--- a/Semaine 1/TP6.xlsx
+++ b/Semaine 1/TP6.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Informatique\VBA\Semaine 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Informatique\VBA\VBA_Excel_Avance\Semaine 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A16A2B-07F0-48EA-A0A1-7782A6107B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578EDEF-82D6-4857-AEC9-38BBEE1B271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0D120759-D61F-4C81-AAFD-0ADEE1E818A6}"/>
   </bookViews>
@@ -208,6 +208,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,25 +230,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -243,86 +243,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -353,26 +273,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -686,10 +586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7D8D44-24BA-4766-B530-0C87B57C2A97}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,44 +603,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -752,27 +653,27 @@
       </c>
       <c r="E4">
         <f>A4*C4</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F4" s="2">
         <f>D4*E4</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="3">
         <f>F14</f>
-        <v>0.94857142857142862</v>
-      </c>
-      <c r="J4" s="8">
+        <v>2.4571428571428573</v>
+      </c>
+      <c r="J4" s="3">
         <f>F15</f>
-        <v>1.1066666666666667</v>
+        <v>2.8666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -785,27 +686,27 @@
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E9" si="0">A5*C5</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F9" si="1">D5*E5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="3">
         <f>IF(I4-0.1&gt;0,I4-0.1,0)</f>
-        <v>0.84857142857142864</v>
-      </c>
-      <c r="J5" s="8">
+        <v>2.3571428571428572</v>
+      </c>
+      <c r="J5" s="3">
         <f>IF(J4-0.1&gt;0,J4-0.1,0)</f>
-        <v>1.0066666666666666</v>
+        <v>2.7666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -818,27 +719,27 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="3">
         <f t="shared" ref="I6:I28" si="2">IF(I5-0.1&gt;0,I5-0.1,0)</f>
-        <v>0.74857142857142867</v>
-      </c>
-      <c r="J6" s="8">
+        <v>2.2571428571428571</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" ref="J6:J28" si="3">IF(J5-0.1&gt;0,J5-0.1,0)</f>
-        <v>0.90666666666666662</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -851,27 +752,27 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" s="8">
-        <f t="shared" si="2"/>
-        <v>0.64857142857142869</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="3"/>
-        <v>0.80666666666666664</v>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.157142857142857</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>2.5666666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -884,22 +785,22 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>26.4</v>
+        <v>66</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
-      <c r="I8" s="8">
-        <f t="shared" si="2"/>
-        <v>0.54857142857142871</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="3"/>
-        <v>0.70666666666666667</v>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0571428571428569</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="3"/>
+        <v>2.4666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -926,54 +827,54 @@
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="8">
-        <f t="shared" si="2"/>
-        <v>0.44857142857142873</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="3"/>
-        <v>0.60666666666666669</v>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9571428571428569</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="3"/>
+        <v>2.3666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="H10">
         <v>6</v>
       </c>
-      <c r="I10" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34857142857142875</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="3"/>
-        <v>0.50666666666666671</v>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8571428571428568</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2666666666666662</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H11">
         <v>7</v>
       </c>
-      <c r="I11" s="8">
-        <f t="shared" si="2"/>
-        <v>0.24857142857142875</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="3"/>
-        <v>0.40666666666666673</v>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7571428571428567</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1666666666666661</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
       <c r="F12">
         <v>100</v>
       </c>
@@ -983,23 +884,23 @@
       <c r="H12">
         <v>8</v>
       </c>
-      <c r="I12" s="8">
-        <f t="shared" si="2"/>
-        <v>0.14857142857142874</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="3"/>
-        <v>0.30666666666666675</v>
+      <c r="I12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6571428571428566</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="3"/>
+        <v>2.066666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
       <c r="F13">
         <f>SUM(F4:F9)</f>
-        <v>66.400000000000006</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -1007,242 +908,242 @@
       <c r="H13">
         <v>9</v>
       </c>
-      <c r="I13" s="8">
-        <f t="shared" si="2"/>
-        <v>4.8571428571428737E-2</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="3"/>
-        <v>0.20666666666666675</v>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5571428571428565</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9666666666666659</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8">
+      <c r="E14" s="7"/>
+      <c r="F14" s="3">
         <f>F13/(F12*0.7)</f>
-        <v>0.94857142857142862</v>
+        <v>2.4571428571428573</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="3"/>
-        <v>0.10666666666666674</v>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4571428571428564</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8666666666666658</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8">
+      <c r="E15" s="7"/>
+      <c r="F15" s="3">
         <f>F13/(F12*0.6)</f>
-        <v>1.1066666666666667</v>
+        <v>2.8666666666666667</v>
       </c>
       <c r="H15">
         <v>11</v>
       </c>
-      <c r="I15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="3"/>
-        <v>6.6666666666667374E-3</v>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3571428571428563</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7666666666666657</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H16">
         <v>12</v>
       </c>
-      <c r="I16" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2571428571428562</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666656</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H17">
         <v>13</v>
       </c>
-      <c r="I17" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1571428571428561</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5666666666666655</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" s="7" t="str">
         <f>IF(F14&gt;3.5,"RISQUE DE MORT",IF(F14&gt;2.5,"RISQUE DE COMA",IF(F14&gt;0.5,"NE PAS PRENDRE LE VOLANT","")))</f>
         <v>NE PAS PRENDRE LE VOLANT</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="H18">
         <v>14</v>
       </c>
-      <c r="I18" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0571428571428561</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4666666666666655</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H19">
         <v>15</v>
       </c>
-      <c r="I19" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95714285714285607</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3666666666666654</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="7" t="str">
         <f>IF(F15&gt;3.5,"RISQUE DE MORT",IF(F15&gt;2.5,"RISQUE DE COMA",IF(F15&gt;0.5,"NE PAS PRENDRE LE VOLANT","")))</f>
-        <v>NE PAS PRENDRE LE VOLANT</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+        <v>RISQUE DE COMA</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="H20">
         <v>16</v>
       </c>
-      <c r="I20" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428561</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2666666666666653</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H21">
         <v>17</v>
       </c>
-      <c r="I21" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75714285714285612</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1666666666666652</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H22">
         <v>18</v>
       </c>
-      <c r="I22" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65714285714285614</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0666666666666651</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H23">
         <v>19</v>
       </c>
-      <c r="I23" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55714285714285616</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96666666666666512</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H24">
         <v>20</v>
       </c>
-      <c r="I24" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45714285714285618</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.86666666666666514</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H25">
         <v>21</v>
       </c>
-      <c r="I25" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.35714285714285621</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.76666666666666516</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H26">
         <v>22</v>
       </c>
-      <c r="I26" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25714285714285623</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666519</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H27">
         <v>23</v>
       </c>
-      <c r="I27" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.15714285714285622</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56666666666666521</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H28">
         <v>24</v>
       </c>
-      <c r="I28" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I28" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7142857142856218E-2</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.46666666666666523</v>
       </c>
     </row>
   </sheetData>
@@ -1256,22 +1157,22 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
   </mergeCells>
-  <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NE PAS PRENDRE LE VOLANT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NE PAS PRENDRE LE VOLANT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I28 J5:J28">
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:J28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>

--- a/Semaine 1/TP6.xlsx
+++ b/Semaine 1/TP6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\Informatique\VBA\VBA_Excel_Avance\Semaine 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578EDEF-82D6-4857-AEC9-38BBEE1B271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C773D026-7468-4B46-8D75-FCD0B1D11366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0D120759-D61F-4C81-AAFD-0ADEE1E818A6}"/>
   </bookViews>
@@ -235,7 +235,147 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -589,8 +729,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1157,24 +1297,40 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
   </mergeCells>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"NE PAS PRENDRE LE VOLANT"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"NE PAS PRENDRE LE VOLANT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
       <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:D20">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"RISQUE DE COMA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"RISQUE DE MORT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"NE PAS PRENDRE LE VOLANT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:D18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"RISQUE DE MORT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"RISQUE DE COMA"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
